--- a/SINF/src/datos/Articulos - copia.xlsx
+++ b/SINF/src/datos/Articulos - copia.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32085DA1-162A-4EC9-83D3-48C0913250B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="148">
   <si>
     <t>ARTICULOS</t>
   </si>
@@ -43,22 +42,433 @@
     <t>Portar placas en lugar inadecuado.</t>
   </si>
   <si>
-    <t>No portar tarjeta de circulación</t>
-  </si>
-  <si>
     <t>La falta de una de las placas en el vehículo, o que no están instaladas en las defensas.</t>
   </si>
   <si>
-    <t>Multa de 5 UMAS</t>
-  </si>
-  <si>
     <t>Multa de 5 UMA</t>
+  </si>
+  <si>
+    <t>23, fracción I, a)</t>
+  </si>
+  <si>
+    <t>23, fracción I, b)</t>
+  </si>
+  <si>
+    <t>23, fracción I, d)</t>
+  </si>
+  <si>
+    <t>23, fracción I, e) y f)</t>
+  </si>
+  <si>
+    <t>23, fracción I, g)</t>
+  </si>
+  <si>
+    <t>23, fracción II</t>
+  </si>
+  <si>
+    <t>23, fracción III</t>
+  </si>
+  <si>
+    <t>23, fracción X</t>
+  </si>
+  <si>
+    <t>23, fracción XVII</t>
+  </si>
+  <si>
+    <t>23, fracción XV</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*que porte el vehículo</t>
+  </si>
+  <si>
+    <t>Falta de claxon.</t>
+  </si>
+  <si>
+    <t>No portar tarjeta de circulación.</t>
+  </si>
+  <si>
+    <t>La falta de ambas placas en el vehículo.</t>
+  </si>
+  <si>
+    <t>la falta de placa de en motocicleta.</t>
+  </si>
+  <si>
+    <t>Que los remolques y análogos no cumplan con las debidas condiciones de seguridad.</t>
+  </si>
+  <si>
+    <t>Circulación del vehículo en zona prohibid con exeso de dimensiones o fuera de horarios permitidos.</t>
+  </si>
+  <si>
+    <t>Alterar los caracteres de las placas.</t>
+  </si>
+  <si>
+    <t>Usar placas de ornato o no reglamentarias.</t>
+  </si>
+  <si>
+    <t>Usar placas con cualquier alteración que impidan su legibilidad.</t>
+  </si>
+  <si>
+    <t>Cuando las placas que porta al vehiculo no concuerden con su registro.</t>
+  </si>
+  <si>
+    <t>Que los vehículos no se encuentren en condiciones adecudas para su funcionamiento.</t>
+  </si>
+  <si>
+    <t>23, fracción I, c)</t>
+  </si>
+  <si>
+    <t>32, fracción I</t>
+  </si>
+  <si>
+    <t>Multa de 10 UMA.</t>
+  </si>
+  <si>
+    <t>Multa de 5 UMA.</t>
+  </si>
+  <si>
+    <t>Multa de 5 UMAS.</t>
+  </si>
+  <si>
+    <t>Multa de 20 UMA.</t>
+  </si>
+  <si>
+    <t>Multa de 10 UMA y suspensión de drecho de tránsito y transporte hasta por 90 dias.</t>
+  </si>
+  <si>
+    <t>Multa de 3 UMA.</t>
+  </si>
+  <si>
+    <t>Multa 20 UMA.</t>
+  </si>
+  <si>
+    <t>155, fracción II</t>
+  </si>
+  <si>
+    <t>155, fracción VII</t>
+  </si>
+  <si>
+    <t>43, fracción I, II, III, IV, V, VII, VIII</t>
+  </si>
+  <si>
+    <t>43, fracción VI</t>
+  </si>
+  <si>
+    <t>43, fracción IX</t>
+  </si>
+  <si>
+    <t>43, fracción X</t>
+  </si>
+  <si>
+    <t>43, fraccion XI</t>
+  </si>
+  <si>
+    <t>43, fracción XII, XII</t>
+  </si>
+  <si>
+    <t>43, fracción XIV</t>
+  </si>
+  <si>
+    <t>43, fracción XV</t>
+  </si>
+  <si>
+    <t>43, fracción XVI</t>
+  </si>
+  <si>
+    <t>Vehiculo que no porte guardafangos.</t>
+  </si>
+  <si>
+    <t>Falta de refrendo vehicular anual</t>
+  </si>
+  <si>
+    <t>referendo?</t>
+  </si>
+  <si>
+    <t>Falta de registro vehicular.</t>
+  </si>
+  <si>
+    <t>Incumplimiento de obligaciones fiscales derivadas de los vehiculos.</t>
+  </si>
+  <si>
+    <t>Obstaculizar o impedir deliberadamente tránsito de vehiculos.</t>
+  </si>
+  <si>
+    <t>Cambio de carroceria o motor sin dar aviso a la dirección.</t>
+  </si>
+  <si>
+    <t>Violación a prohibiciones de conducta vehicular.</t>
+  </si>
+  <si>
+    <t>afectando</t>
+  </si>
+  <si>
+    <t>Conducción con aliento alcoholico.</t>
+  </si>
+  <si>
+    <t>Conducción de vehiuclo en sentido contrario o se invade carril de contrario.</t>
+  </si>
+  <si>
+    <t>Conduccion de vehiculos afectuando competencia en la vía publica.</t>
+  </si>
+  <si>
+    <t>Conducción en estado de ebriedad no apto para conducir, o bajo los efectos de narcoticos.</t>
+  </si>
+  <si>
+    <t>Conducción en estado de ebriedad incompleto.</t>
+  </si>
+  <si>
+    <t>Cambiar de carrill negligentemente</t>
+  </si>
+  <si>
+    <t>Conducción utilizando dispositivos electronicos u objetos que dificulten la normal conducción</t>
+  </si>
+  <si>
+    <t>Dar vuelta a la derecha/izquierda cuando haya una señal que lo prohibe.</t>
+  </si>
+  <si>
+    <t>las personas lesionadas por motivo</t>
+  </si>
+  <si>
+    <t>Multa de 20 UMA y retiro de vehiculos de circulación vial.</t>
+  </si>
+  <si>
+    <t>Multa de 60 UMA.</t>
+  </si>
+  <si>
+    <t>Multa de 120 UMA.</t>
+  </si>
+  <si>
+    <t>43, fracción XVII</t>
+  </si>
+  <si>
+    <t>48,49</t>
+  </si>
+  <si>
+    <t>57,58,59,60</t>
+  </si>
+  <si>
+    <t>62,63</t>
+  </si>
+  <si>
+    <t>64,64</t>
+  </si>
+  <si>
+    <t>64 &amp; 65?</t>
+  </si>
+  <si>
+    <t>Multa de 20  UMA.</t>
+  </si>
+  <si>
+    <t>destino/detenido?</t>
+  </si>
+  <si>
+    <t>violaciones</t>
+  </si>
+  <si>
+    <t>Motociclista/Motocicletas</t>
+  </si>
+  <si>
+    <t>Obstaculizar el tránsito en la via pública infringiendo cualquier prohibición.</t>
+  </si>
+  <si>
+    <t>Violación a reglas para el adecuado estacionamiento.</t>
+  </si>
+  <si>
+    <t>Conducción de motociclistas violando las reglas para circular.</t>
+  </si>
+  <si>
+    <t>Conduccion de violando las reglas sobre preferencia de paso de vehiculos de emergencia.</t>
+  </si>
+  <si>
+    <t>Vehiculos equipados con bandas de oruga o analogs u otro uso indebido.</t>
+  </si>
+  <si>
+    <t>Conducción violando las reglas sobe el uso adecuado de las luces vehiculares.</t>
+  </si>
+  <si>
+    <t>Conducción violando reglas para maniobras de reversa.</t>
+  </si>
+  <si>
+    <t>Conducción violando reglas para cambiar de carril sin reducir velocidad o detenerse.</t>
+  </si>
+  <si>
+    <t>Conducción violando las reglas para hacer maniobras de vuelta en intersecciones.</t>
+  </si>
+  <si>
+    <t>Conducción violando reglas sobre la preferencia de paso al ferrocarril.</t>
+  </si>
+  <si>
+    <t>Conducción violando las reglas de sentidos y de rebase a otros vehiculos.</t>
+  </si>
+  <si>
+    <t>Conducción volando las reglas de preferencia en vias primarias.</t>
+  </si>
+  <si>
+    <t>Circular violando las reglas en intersección no controladas por semáforos o policias de vialidad.</t>
+  </si>
+  <si>
+    <t>Obstruir la circulacion en un crucero.</t>
+  </si>
+  <si>
+    <t>Conductor que no respete los limites de velocidad.</t>
+  </si>
+  <si>
+    <t>Obstrucción a las funciones de los policias de seguridad vial por parte de conductores o peatones.</t>
+  </si>
+  <si>
+    <t>Conductor que rebase cualquier vehículo que se encuentre destino en zona de paso peatonal, sin permitir el paso de los peatones.</t>
+  </si>
+  <si>
+    <t>Remolcar Vehiculos sin las debidas medidás de precauciónn.</t>
+  </si>
+  <si>
+    <t>Abandonar vehiculo por más de 72 hrs. Sin causa justificcada.</t>
+  </si>
+  <si>
+    <t>No prestar auxilio a la personas lesionaas, motivo de un hecho de transito.</t>
+  </si>
+  <si>
+    <t>Realizar el regitro vehicular sin haber tramitado la cancelación.</t>
+  </si>
+  <si>
+    <t>Vehiculo de servicio particular que maneje negligentemente.</t>
+  </si>
+  <si>
+    <t>Que las bicicletas o bicimotos no se encuentren en condiciones óptimas.</t>
+  </si>
+  <si>
+    <t>Falta de registro vehicular en el caso de unidades proceentes de otros estados o del extranjero.</t>
+  </si>
+  <si>
+    <t>Que las motocicletas no se encuentren en adecuadas condiciones.</t>
+  </si>
+  <si>
+    <t>Circulación de vehiculo cristalizado o cubiertas de pintura o materiales refleantes los cuales tengan una transparencia de al menos 75%.</t>
+  </si>
+  <si>
+    <t>Portación de calocmanias en el vehículo que hagan apologia de un delito.</t>
+  </si>
+  <si>
+    <t>Vehiculo que no se encuentre en buen estado de funcionamiento para que su uso se realice en aceptables condiciones de seguridad.</t>
+  </si>
+  <si>
+    <t>Circulación de los vehiculos de servicios de emergencia o de servicio público que no cuenten con los colores reglamentarios.</t>
+  </si>
+  <si>
+    <t>Conducción de vehiculo descompuesto violando las reglas para prevenir accidentes</t>
+  </si>
+  <si>
+    <t>Reparar vehiculos en la via pública, exceptundo casos de emergencias</t>
+  </si>
+  <si>
+    <t>77, fracciones I, II, III, IV, V, VI, VII, VIII, IV, IX, XI, XII, XIII, XIV, XV,  XVII,  XVIII</t>
+  </si>
+  <si>
+    <t>77, fracción VI</t>
+  </si>
+  <si>
+    <t>80,81,83,84,87</t>
+  </si>
+  <si>
+    <t>96,97</t>
+  </si>
+  <si>
+    <t>5, 105</t>
+  </si>
+  <si>
+    <t>107, fracción II</t>
+  </si>
+  <si>
+    <t>107, fracción III</t>
+  </si>
+  <si>
+    <t>110, 111, 112</t>
+  </si>
+  <si>
+    <t>152, ultimo párrafo</t>
+  </si>
+  <si>
+    <t>Estacionar en via pública violando las reglas de vialidad</t>
+  </si>
+  <si>
+    <t>Estacionrse prohivitivamente en lugares destinados a personas discapacidad</t>
+  </si>
+  <si>
+    <t>Personas con discapacidad</t>
+  </si>
+  <si>
+    <t>Portar licencia para conducir vencida.</t>
+  </si>
+  <si>
+    <t>Portar licencia para conducir y no se presentada ante la autoridad</t>
+  </si>
+  <si>
+    <t>y no presentarla</t>
+  </si>
+  <si>
+    <t>y la misma no coincida con la modalidad en que se conduce</t>
+  </si>
+  <si>
+    <t>Portar permiso para conducir sin ser vigente o no portarlo</t>
+  </si>
+  <si>
+    <t>Conducción por un menor de edad sin  permiso o fuera del horario permitido.</t>
+  </si>
+  <si>
+    <t>Conducción de violando el desacato por suspensión o canceación de la licenca</t>
+  </si>
+  <si>
+    <t>Conducción violando</t>
+  </si>
+  <si>
+    <t>que los propietario del vehiculos de construcción los asignen a personas sin</t>
+  </si>
+  <si>
+    <t>Violar las señales humanas, así como la inobservancia a las realizadas por la Policia de seguridad vial</t>
+  </si>
+  <si>
+    <t>No disminuir la velocidad en presencia de topes, vibradoes o dispositivos decutores de velocidad</t>
+  </si>
+  <si>
+    <t>Conduccion violando la disposición de luz ámbar</t>
+  </si>
+  <si>
+    <t>Conduccion violando la disposición de luz roja</t>
+  </si>
+  <si>
+    <t>Conducción de vehiculo de carga violando la adecuada circulación, exceso de dimensiones, falta de lona, fuera de horarios permitidos o zonas prohibidas.</t>
+  </si>
+  <si>
+    <t>Uso indebido de tarjetetón o uso de tarjetón falsificado</t>
+  </si>
+  <si>
+    <t>Conducción violando las medidas de seguridad en cuestion de transporte, carga, abastecimiento de materiales, sustancias o residuos tóicos y peligrosos.</t>
+  </si>
+  <si>
+    <t>Conducción de Vehículo el cual emita visiblemente contamientes</t>
+  </si>
+  <si>
+    <t>Multade 10 UMA.</t>
+  </si>
+  <si>
+    <t>Multa de 20 LAS.</t>
+  </si>
+  <si>
+    <t>Portar licencia para conducir y la misma no corresponde la modalidad en se conduce</t>
+  </si>
+  <si>
+    <t>Que los propietarios de vehiculos de conducción a personas sin licneica o permiso</t>
+  </si>
+  <si>
+    <t>Violar las marcas en la superficie del rodamiento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,8 +498,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,7 +530,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1172AD96-DBF4-4936-A647-00F09A4ABD63}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -397,65 +808,1007 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="D78" sqref="A1:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>112</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>47</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>53</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>55</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>56</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>66</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>67</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>68</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>69</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>70</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>72</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>74</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>75</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>76</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>80</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>80</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>89</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>90</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>91</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>92</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>101</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>113</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>116</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>